--- a/validationScripts/MetadataMaster.xlsx
+++ b/validationScripts/MetadataMaster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zachw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zachw\Documents\GitRepos\metadata-consumer\validationScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24477DD0-19D0-4BDC-9697-EF839AE2D730}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CA37F8-1A9B-45F4-B273-4CCBA87BA518}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Information" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="580">
   <si>
     <t>Associated File Type</t>
   </si>
@@ -1790,9 +1790,6 @@
     <t>CryosectioningDate</t>
   </si>
   <si>
-    <t>TissueSegmentionDissociationDate</t>
-  </si>
-  <si>
     <t>RNAIsolationDate</t>
   </si>
   <si>
@@ -1962,6 +1959,12 @@
   </si>
   <si>
     <t>NumberofCellsSequencedPostQC</t>
+  </si>
+  <si>
+    <t>Tissue Segmentation / Dissociation Date</t>
+  </si>
+  <si>
+    <t>TissueSegmentationDissociationDate</t>
   </si>
 </sst>
 </file>
@@ -3985,10 +3988,10 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4105,7 +4108,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>578</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>82</v>
@@ -4133,7 +4136,7 @@
         <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="O3" s="9">
         <v>43209</v>
@@ -4175,7 +4178,7 @@
         <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O4" s="9">
         <v>43210</v>
@@ -4219,7 +4222,7 @@
         <v>24</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>88</v>
@@ -4263,7 +4266,7 @@
         <v>96</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>97</v>
@@ -4305,7 +4308,7 @@
         <v>96</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>100</v>
@@ -4346,7 +4349,7 @@
         <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="12.75">
@@ -4384,7 +4387,7 @@
         <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="12.75">
@@ -4421,7 +4424,7 @@
         <v>96</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="14"/>
@@ -4461,7 +4464,7 @@
         <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O11" s="1"/>
     </row>
@@ -4501,7 +4504,7 @@
         <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O12" s="1">
         <v>361644</v>
@@ -4543,7 +4546,7 @@
         <v>24</v>
       </c>
       <c r="M13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O13" s="1"/>
     </row>
@@ -4583,7 +4586,7 @@
         <v>24</v>
       </c>
       <c r="M14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -4624,7 +4627,7 @@
         <v>24</v>
       </c>
       <c r="M15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>121</v>
@@ -4667,7 +4670,7 @@
         <v>96</v>
       </c>
       <c r="M16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O16" s="1"/>
     </row>
@@ -4707,7 +4710,7 @@
         <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O17" s="1">
         <v>2.2999999999999998</v>
@@ -4749,7 +4752,7 @@
         <v>24</v>
       </c>
       <c r="M18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O18" s="1">
         <v>83</v>
@@ -4791,7 +4794,7 @@
         <v>24</v>
       </c>
       <c r="M19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O19" s="1"/>
     </row>
@@ -4828,7 +4831,7 @@
         <v>24</v>
       </c>
       <c r="M20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O20" s="1"/>
     </row>
@@ -4865,7 +4868,7 @@
         <v>24</v>
       </c>
       <c r="M21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O21" s="1"/>
     </row>
@@ -4904,7 +4907,7 @@
         <v>24</v>
       </c>
       <c r="M22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O22" s="1">
         <v>30137</v>
@@ -4946,7 +4949,7 @@
         <v>24</v>
       </c>
       <c r="M23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O23" s="1"/>
     </row>
@@ -4983,7 +4986,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O24" s="1"/>
     </row>
@@ -5020,7 +5023,7 @@
         <v>24</v>
       </c>
       <c r="M25" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>161</v>
@@ -5061,7 +5064,7 @@
         <v>24</v>
       </c>
       <c r="M26" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>163</v>
@@ -5102,7 +5105,7 @@
         <v>24</v>
       </c>
       <c r="M27" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="12.75">
@@ -5141,7 +5144,7 @@
         <v>96</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
@@ -5182,7 +5185,7 @@
         <v>24</v>
       </c>
       <c r="M29" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>182</v>
@@ -5223,7 +5226,7 @@
         <v>24</v>
       </c>
       <c r="M30" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>186</v>
@@ -5264,7 +5267,7 @@
         <v>24</v>
       </c>
       <c r="M31" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="12.75">
@@ -5299,7 +5302,7 @@
         <v>24</v>
       </c>
       <c r="M32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="12.75">
@@ -5337,7 +5340,7 @@
         <v>24</v>
       </c>
       <c r="M33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="12.75">
@@ -5375,7 +5378,7 @@
         <v>96</v>
       </c>
       <c r="M34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="12.75">
@@ -5413,7 +5416,7 @@
         <v>24</v>
       </c>
       <c r="M35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>201</v>
@@ -5452,7 +5455,7 @@
         <v>24</v>
       </c>
       <c r="M36" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="12.75">
@@ -5491,7 +5494,7 @@
         <v>24</v>
       </c>
       <c r="M37" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="12.75">
@@ -5527,7 +5530,7 @@
         <v>24</v>
       </c>
       <c r="M38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="12.75">
@@ -5565,7 +5568,7 @@
         <v>24</v>
       </c>
       <c r="M39" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="12.75">
@@ -5603,7 +5606,7 @@
         <v>24</v>
       </c>
       <c r="M40" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="12.75">
@@ -5639,7 +5642,7 @@
         <v>24</v>
       </c>
       <c r="M41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P41" s="1"/>
     </row>
@@ -5679,7 +5682,7 @@
         <v>96</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
@@ -5721,7 +5724,7 @@
         <v>24</v>
       </c>
       <c r="M43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="12.75">
@@ -5760,7 +5763,7 @@
         <v>24</v>
       </c>
       <c r="M44" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="12.75">
@@ -5799,7 +5802,7 @@
         <v>24</v>
       </c>
       <c r="M45" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="12.75">
@@ -5835,7 +5838,7 @@
         <v>24</v>
       </c>
       <c r="M46" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="12.75">
@@ -5871,7 +5874,7 @@
         <v>24</v>
       </c>
       <c r="M47" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="12.75">
@@ -5910,7 +5913,7 @@
         <v>24</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N48" s="16"/>
       <c r="O48" s="16"/>
@@ -5952,7 +5955,7 @@
         <v>24</v>
       </c>
       <c r="M49" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="12.75">
@@ -5988,7 +5991,7 @@
         <v>96</v>
       </c>
       <c r="M50" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="12.75">
@@ -6024,7 +6027,7 @@
         <v>24</v>
       </c>
       <c r="M51" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="12.75">
@@ -6062,7 +6065,7 @@
         <v>24</v>
       </c>
       <c r="M52" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="12.75">
@@ -6098,7 +6101,7 @@
         <v>24</v>
       </c>
       <c r="M53" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="12.75">
@@ -6134,7 +6137,7 @@
         <v>24</v>
       </c>
       <c r="M54" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="12.75">
@@ -6170,7 +6173,7 @@
         <v>24</v>
       </c>
       <c r="M55" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="12.75">
@@ -6208,7 +6211,7 @@
         <v>24</v>
       </c>
       <c r="M56" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="12.75">
@@ -6246,7 +6249,7 @@
         <v>24</v>
       </c>
       <c r="M57" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="12.75">
@@ -6284,7 +6287,7 @@
         <v>24</v>
       </c>
       <c r="M58" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="12.75">
@@ -6322,7 +6325,7 @@
         <v>24</v>
       </c>
       <c r="M59" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="12.75">
@@ -6361,7 +6364,7 @@
         <v>96</v>
       </c>
       <c r="M60" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="N60" s="16"/>
       <c r="O60" s="16"/>

--- a/validationScripts/MetadataMaster.xlsx
+++ b/validationScripts/MetadataMaster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zachw\Documents\GitRepos\metadata-consumer\validationScripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoste\Box Sync\KPMP\ValidationScripts\Package-Level_Validations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CA37F8-1A9B-45F4-B273-4CCBA87BA518}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72BD060-1D17-4E33-822E-0D477F764DFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23076" yWindow="4272" windowWidth="30636" windowHeight="11532" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Information" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="581">
   <si>
     <t>Associated File Type</t>
   </si>
@@ -702,9 +702,6 @@
     <t>Need to keep? Each technique will have their own standard number.</t>
   </si>
   <si>
-    <t>cDNA Library Yield</t>
-  </si>
-  <si>
     <t>cDNA Yield</t>
   </si>
   <si>
@@ -796,9 +793,6 @@
   </si>
   <si>
     <t>Sequencing Timestamp</t>
-  </si>
-  <si>
-    <t>cDNA Quantity Loaded</t>
   </si>
   <si>
     <t>Quantity Loaded</t>
@@ -1043,9 +1037,6 @@
   </si>
   <si>
     <t>Spatial Resolution (μm)</t>
-  </si>
-  <si>
-    <t>Median Number of Raw Sequencing Reads (per cell/nucleus)</t>
   </si>
   <si>
     <t>Number of Cells Sequenced Post-QC</t>
@@ -1790,6 +1781,9 @@
     <t>CryosectioningDate</t>
   </si>
   <si>
+    <t>TissueSegmentionDissociationDate</t>
+  </si>
+  <si>
     <t>RNAIsolationDate</t>
   </si>
   <si>
@@ -1937,9 +1931,6 @@
     <t>MedianPercentMitochondria</t>
   </si>
   <si>
-    <t>MedianNumberofRawSequencingReads</t>
-  </si>
-  <si>
     <t>GenesDetected</t>
   </si>
   <si>
@@ -1964,7 +1955,19 @@
     <t>Tissue Segmentation / Dissociation Date</t>
   </si>
   <si>
-    <t>TissueSegmentationDissociationDate</t>
+    <t>cDNA Library Yield (ng)</t>
+  </si>
+  <si>
+    <t>cDNA Quantity Loaded (nmol)</t>
+  </si>
+  <si>
+    <t>Calculated Volume Dissected / Processed (mm^3)</t>
+  </si>
+  <si>
+    <t>Mean Number of Raw Sequencing Reads (per cell/nucleus)</t>
+  </si>
+  <si>
+    <t>MeanNumberofRawSequencingReads</t>
   </si>
 </sst>
 </file>
@@ -2027,7 +2030,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2110,6 +2113,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2223,7 +2232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2309,6 +2318,8 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3988,10 +3999,10 @@
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4096,7 +4107,7 @@
         <v>24</v>
       </c>
       <c r="M2" s="68" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O2" s="9"/>
     </row>
@@ -4107,8 +4118,8 @@
       <c r="B3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>578</v>
+      <c r="C3" s="69" t="s">
+        <v>575</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>82</v>
@@ -4136,7 +4147,7 @@
         <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>579</v>
+        <v>518</v>
       </c>
       <c r="O3" s="9">
         <v>43209</v>
@@ -4178,7 +4189,7 @@
         <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="O4" s="9">
         <v>43210</v>
@@ -4222,7 +4233,7 @@
         <v>24</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>88</v>
@@ -4266,7 +4277,7 @@
         <v>96</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>97</v>
@@ -4282,8 +4293,8 @@
       <c r="B7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>98</v>
+      <c r="C7" s="69" t="s">
+        <v>578</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -4308,7 +4319,7 @@
         <v>96</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>100</v>
@@ -4349,7 +4360,7 @@
         <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="12.75">
@@ -4387,7 +4398,7 @@
         <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="12.75">
@@ -4424,7 +4435,7 @@
         <v>96</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="14"/>
@@ -4464,7 +4475,7 @@
         <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="O11" s="1"/>
     </row>
@@ -4504,7 +4515,7 @@
         <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="O12" s="1">
         <v>361644</v>
@@ -4546,7 +4557,7 @@
         <v>24</v>
       </c>
       <c r="M13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="O13" s="1"/>
     </row>
@@ -4586,7 +4597,7 @@
         <v>24</v>
       </c>
       <c r="M14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -4627,7 +4638,7 @@
         <v>24</v>
       </c>
       <c r="M15" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>121</v>
@@ -4670,7 +4681,7 @@
         <v>96</v>
       </c>
       <c r="M16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="O16" s="1"/>
     </row>
@@ -4710,7 +4721,7 @@
         <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="O17" s="1">
         <v>2.2999999999999998</v>
@@ -4752,7 +4763,7 @@
         <v>24</v>
       </c>
       <c r="M18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="O18" s="1">
         <v>83</v>
@@ -4794,7 +4805,7 @@
         <v>24</v>
       </c>
       <c r="M19" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="O19" s="1"/>
     </row>
@@ -4831,7 +4842,7 @@
         <v>24</v>
       </c>
       <c r="M20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="O20" s="1"/>
     </row>
@@ -4868,7 +4879,7 @@
         <v>24</v>
       </c>
       <c r="M21" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="O21" s="1"/>
     </row>
@@ -4907,7 +4918,7 @@
         <v>24</v>
       </c>
       <c r="M22" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O22" s="1">
         <v>30137</v>
@@ -4949,7 +4960,7 @@
         <v>24</v>
       </c>
       <c r="M23" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="O23" s="1"/>
     </row>
@@ -4986,7 +4997,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="O24" s="1"/>
     </row>
@@ -5023,7 +5034,7 @@
         <v>24</v>
       </c>
       <c r="M25" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>161</v>
@@ -5064,7 +5075,7 @@
         <v>24</v>
       </c>
       <c r="M26" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>163</v>
@@ -5077,11 +5088,11 @@
       <c r="B27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="69" t="s">
+        <v>576</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>65</v>
@@ -5105,7 +5116,7 @@
         <v>24</v>
       </c>
       <c r="M27" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="12.75">
@@ -5116,10 +5127,10 @@
         <v>108</v>
       </c>
       <c r="C28" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>65</v>
@@ -5144,7 +5155,7 @@
         <v>96</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
@@ -5155,13 +5166,13 @@
         <v>70</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>65</v>
@@ -5185,10 +5196,10 @@
         <v>24</v>
       </c>
       <c r="M29" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="12.75">
@@ -5196,13 +5207,13 @@
         <v>70</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>65</v>
@@ -5226,10 +5237,10 @@
         <v>24</v>
       </c>
       <c r="M30" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="12.75">
@@ -5237,13 +5248,13 @@
         <v>70</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>65</v>
@@ -5267,7 +5278,7 @@
         <v>24</v>
       </c>
       <c r="M31" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="12.75">
@@ -5275,10 +5286,10 @@
         <v>70</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>65</v>
@@ -5302,7 +5313,7 @@
         <v>24</v>
       </c>
       <c r="M32" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="12.75">
@@ -5310,13 +5321,13 @@
         <v>70</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>65</v>
@@ -5340,7 +5351,7 @@
         <v>24</v>
       </c>
       <c r="M33" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="12.75">
@@ -5348,13 +5359,13 @@
         <v>70</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
+      </c>
+      <c r="C34" s="69" t="s">
+        <v>577</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>65</v>
@@ -5378,7 +5389,7 @@
         <v>96</v>
       </c>
       <c r="M34" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="12.75">
@@ -5386,13 +5397,13 @@
         <v>70</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>65</v>
@@ -5416,10 +5427,10 @@
         <v>24</v>
       </c>
       <c r="M35" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="12.75">
@@ -5427,10 +5438,10 @@
         <v>70</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
@@ -5455,7 +5466,7 @@
         <v>24</v>
       </c>
       <c r="M36" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="12.75">
@@ -5463,10 +5474,10 @@
         <v>70</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
@@ -5488,13 +5499,13 @@
         <v>94</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M37" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="12.75">
@@ -5502,10 +5513,10 @@
         <v>70</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
@@ -5530,7 +5541,7 @@
         <v>24</v>
       </c>
       <c r="M38" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="12.75">
@@ -5538,13 +5549,13 @@
         <v>70</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>65</v>
@@ -5568,7 +5579,7 @@
         <v>24</v>
       </c>
       <c r="M39" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="12.75">
@@ -5576,13 +5587,13 @@
         <v>70</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>65</v>
@@ -5606,7 +5617,7 @@
         <v>24</v>
       </c>
       <c r="M40" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="12.75">
@@ -5614,10 +5625,10 @@
         <v>70</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
@@ -5642,7 +5653,7 @@
         <v>24</v>
       </c>
       <c r="M41" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="P41" s="1"/>
     </row>
@@ -5651,13 +5662,13 @@
         <v>70</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>65</v>
@@ -5682,7 +5693,7 @@
         <v>96</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
@@ -5690,13 +5701,13 @@
     </row>
     <row r="43" spans="1:16" ht="12.75">
       <c r="A43" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
@@ -5718,24 +5729,24 @@
         <v>23</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M43" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="12.75">
       <c r="A44" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
@@ -5763,18 +5774,18 @@
         <v>24</v>
       </c>
       <c r="M44" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="12.75">
       <c r="A45" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
@@ -5796,24 +5807,24 @@
         <v>23</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M45" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="12.75">
       <c r="A46" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
@@ -5838,18 +5849,18 @@
         <v>24</v>
       </c>
       <c r="M46" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="12.75">
       <c r="A47" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
@@ -5874,21 +5885,21 @@
         <v>24</v>
       </c>
       <c r="M47" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="12.75">
       <c r="A48" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>65</v>
@@ -5913,7 +5924,7 @@
         <v>24</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="N48" s="16"/>
       <c r="O48" s="16"/>
@@ -5921,13 +5932,13 @@
     </row>
     <row r="49" spans="1:16" ht="12.75">
       <c r="A49" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
@@ -5949,24 +5960,24 @@
         <v>23</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M49" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="12.75">
       <c r="A50" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
@@ -5991,18 +6002,18 @@
         <v>96</v>
       </c>
       <c r="M50" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="12.75">
       <c r="A51" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
@@ -6027,21 +6038,21 @@
         <v>24</v>
       </c>
       <c r="M51" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="12.75">
       <c r="A52" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>65</v>
@@ -6065,18 +6076,18 @@
         <v>24</v>
       </c>
       <c r="M52" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="12.75">
       <c r="A53" s="67" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
@@ -6101,18 +6112,18 @@
         <v>24</v>
       </c>
       <c r="M53" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="12.75">
       <c r="A54" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
@@ -6137,18 +6148,18 @@
         <v>24</v>
       </c>
       <c r="M54" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="12.75">
       <c r="A55" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>278</v>
+        <v>252</v>
+      </c>
+      <c r="C55" s="69" t="s">
+        <v>579</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
@@ -6172,22 +6183,22 @@
       <c r="L55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M55" t="s">
-        <v>570</v>
+      <c r="M55" s="70" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="12.75">
       <c r="A56" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>64</v>
@@ -6211,21 +6222,21 @@
         <v>24</v>
       </c>
       <c r="M56" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="12.75">
       <c r="A57" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>65</v>
@@ -6249,21 +6260,21 @@
         <v>24</v>
       </c>
       <c r="M57" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="12.75">
       <c r="A58" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>64</v>
@@ -6287,21 +6298,21 @@
         <v>24</v>
       </c>
       <c r="M58" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="12.75">
       <c r="A59" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>64</v>
@@ -6325,21 +6336,21 @@
         <v>24</v>
       </c>
       <c r="M59" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="12.75">
       <c r="A60" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>65</v>
@@ -6364,7 +6375,7 @@
         <v>96</v>
       </c>
       <c r="M60" s="16" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="N60" s="16"/>
       <c r="O60" s="16"/>
@@ -6373,7 +6384,7 @@
     <row r="61" spans="1:16" ht="12.75">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6387,13 +6398,13 @@
     <row r="62" spans="1:16" ht="12.75">
       <c r="A62" s="35"/>
       <c r="B62" s="35" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E62" s="35" t="s">
         <v>65</v>
@@ -6419,13 +6430,13 @@
     <row r="63" spans="1:16" ht="12.75">
       <c r="A63" s="41"/>
       <c r="B63" s="35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E63" s="35" t="s">
         <v>64</v>
@@ -6451,13 +6462,13 @@
     <row r="64" spans="1:16" ht="12.75">
       <c r="A64" s="41"/>
       <c r="B64" s="35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E64" s="35" t="s">
         <v>64</v>
@@ -6481,13 +6492,13 @@
     <row r="65" spans="1:12" ht="12.75">
       <c r="A65" s="41"/>
       <c r="B65" s="35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E65" s="35" t="s">
         <v>65</v>
@@ -7339,10 +7350,10 @@
     </row>
     <row r="26" spans="1:13" ht="12.75">
       <c r="A26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>166</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>167</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
@@ -7370,13 +7381,13 @@
     </row>
     <row r="27" spans="1:13" ht="12.75">
       <c r="A27" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>65</v>
@@ -7400,15 +7411,15 @@
         <v>78</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="12.75">
       <c r="A28" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>65</v>
@@ -7432,15 +7443,15 @@
         <v>78</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="12.75">
       <c r="A29" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
@@ -7468,10 +7479,10 @@
     </row>
     <row r="30" spans="1:13" ht="12.75">
       <c r="A30" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>65</v>
@@ -7495,15 +7506,15 @@
         <v>78</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75">
       <c r="A31" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
@@ -7519,10 +7530,10 @@
     </row>
     <row r="32" spans="1:13" ht="12.75">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>65</v>
@@ -7546,15 +7557,15 @@
         <v>78</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12.75">
       <c r="A33" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>65</v>
@@ -7578,15 +7589,15 @@
         <v>78</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="12.75">
       <c r="A34" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>65</v>
@@ -7610,15 +7621,15 @@
         <v>135</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="12.75">
       <c r="A35" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>65</v>
@@ -7633,10 +7644,10 @@
     </row>
     <row r="36" spans="1:13" ht="12.75">
       <c r="A36" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>65</v>
@@ -7651,18 +7662,18 @@
         <v>57</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="12.75">
       <c r="A37" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>65</v>
@@ -7683,16 +7694,16 @@
         <v>24</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:13" ht="12.75">
       <c r="A38" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>65</v>
@@ -7704,15 +7715,15 @@
         <v>65</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12.75">
       <c r="A39" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14" t="s">
@@ -7738,10 +7749,10 @@
     </row>
     <row r="40" spans="1:13" ht="12.75">
       <c r="A40" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>65</v>
@@ -7767,10 +7778,10 @@
     </row>
     <row r="41" spans="1:13" ht="12.75">
       <c r="A41" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>218</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>220</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>65</v>
@@ -7796,10 +7807,10 @@
     </row>
     <row r="42" spans="1:13" ht="12.75">
       <c r="A42" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>65</v>
@@ -7825,10 +7836,10 @@
     </row>
     <row r="43" spans="1:13" ht="12.75">
       <c r="A43" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>65</v>
@@ -7854,10 +7865,10 @@
     </row>
     <row r="44" spans="1:13" ht="12.75">
       <c r="A44" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -7865,10 +7876,10 @@
     </row>
     <row r="45" spans="1:13" ht="12.75">
       <c r="A45" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>65</v>
@@ -7894,10 +7905,10 @@
     </row>
     <row r="46" spans="1:13" ht="12.75">
       <c r="A46" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>65</v>
@@ -7923,10 +7934,10 @@
     </row>
     <row r="47" spans="1:13" ht="12.75">
       <c r="A47" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>65</v>
@@ -7952,10 +7963,10 @@
     </row>
     <row r="48" spans="1:13" ht="12.75">
       <c r="A48" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>65</v>
@@ -7981,10 +7992,10 @@
     </row>
     <row r="49" spans="1:10" ht="12.75">
       <c r="A49" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>65</v>
@@ -8010,13 +8021,13 @@
     </row>
     <row r="50" spans="1:10" ht="12.75">
       <c r="A50" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>65</v>
@@ -8042,10 +8053,10 @@
     </row>
     <row r="51" spans="1:10" ht="12.75">
       <c r="A51" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
@@ -8111,10 +8122,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -8142,7 +8153,7 @@
     </row>
     <row r="2" spans="1:14" ht="12.75">
       <c r="A2" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>53</v>
@@ -8151,40 +8162,40 @@
         <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="12.75">
       <c r="A3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="12.75">
       <c r="A4" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="12.75">
       <c r="A5" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -8192,18 +8203,18 @@
         <v>94</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="12.75">
       <c r="A6" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -8213,112 +8224,112 @@
     </row>
     <row r="7" spans="1:14" ht="12.75">
       <c r="A7" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="12.75">
       <c r="A8" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="12.75">
       <c r="A9" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="12.75">
       <c r="A10" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="12.75">
       <c r="A11" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="12.75">
       <c r="A12" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="12.75">
       <c r="A13" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="12.75">
       <c r="A14" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="12.75">
       <c r="A15" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.75">
       <c r="A16" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -8332,7 +8343,7 @@
     </row>
     <row r="17" spans="1:14" ht="12.75">
       <c r="A17" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>53</v>
@@ -8341,143 +8352,143 @@
         <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="12.75">
       <c r="A18" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="12.75">
       <c r="A19" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="12.75">
       <c r="A20" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="12.75">
       <c r="A21" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75">
       <c r="A22" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="12.75">
       <c r="A23" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="12.75">
       <c r="A24" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="12.75">
       <c r="A25" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="12.75">
       <c r="A26" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="12.75">
       <c r="A27" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="12.75">
       <c r="A28" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
@@ -8487,7 +8498,7 @@
     </row>
     <row r="29" spans="1:14" ht="12.75">
       <c r="A29" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>53</v>
@@ -8499,7 +8510,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
@@ -8509,53 +8520,53 @@
     </row>
     <row r="30" spans="1:14" ht="12.75">
       <c r="A30" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" ht="12.75">
       <c r="A31" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="12.75">
       <c r="A32" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="12.75">
       <c r="A33" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G33" s="1">
         <v>10</v>
@@ -8563,82 +8574,82 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" ht="12.75">
       <c r="A34" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" ht="12.75">
       <c r="A35" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" ht="12.75">
       <c r="A36" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="12.75">
       <c r="A37" s="34" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D37" s="42"/>
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
@@ -8695,22 +8706,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E1" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="I1" s="40" t="s">
         <v>314</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>317</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -8739,10 +8750,10 @@
     </row>
     <row r="2" spans="1:19" ht="12.75">
       <c r="B2" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>64</v>
@@ -8758,10 +8769,10 @@
     </row>
     <row r="3" spans="1:19" ht="12.75">
       <c r="B3" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>64</v>
@@ -8777,10 +8788,10 @@
     </row>
     <row r="4" spans="1:19" ht="12.75">
       <c r="B4" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>64</v>
@@ -8794,12 +8805,12 @@
         <v>64</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="12.75">
       <c r="A5" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>53</v>
@@ -8821,13 +8832,13 @@
     </row>
     <row r="6" spans="1:19" ht="12.75">
       <c r="A6" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>64</v>
@@ -8843,13 +8854,13 @@
     </row>
     <row r="7" spans="1:19" ht="12.75">
       <c r="A7" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>64</v>
@@ -8863,18 +8874,18 @@
         <v>64</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="12.75">
       <c r="A8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>64</v>
@@ -8890,7 +8901,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -8898,13 +8909,13 @@
     </row>
     <row r="9" spans="1:19" ht="12.75">
       <c r="A9" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>64</v>
@@ -8920,13 +8931,13 @@
     </row>
     <row r="10" spans="1:19" ht="12.75">
       <c r="A10" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>64</v>
@@ -8942,13 +8953,13 @@
     </row>
     <row r="11" spans="1:19" ht="12.75">
       <c r="A11" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>64</v>
@@ -8964,13 +8975,13 @@
     </row>
     <row r="12" spans="1:19" ht="12.75">
       <c r="A12" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>64</v>
@@ -8986,13 +8997,13 @@
     </row>
     <row r="13" spans="1:19" ht="12.75">
       <c r="A13" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>64</v>
@@ -9008,13 +9019,13 @@
     </row>
     <row r="14" spans="1:19" ht="12.75">
       <c r="A14" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>64</v>
@@ -9030,13 +9041,13 @@
     </row>
     <row r="15" spans="1:19" ht="12.75">
       <c r="A15" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>64</v>
@@ -9052,13 +9063,13 @@
     </row>
     <row r="16" spans="1:19" ht="12.75">
       <c r="A16" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>64</v>
@@ -9072,18 +9083,18 @@
         <v>64</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="12.75">
       <c r="A17" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>64</v>
@@ -9097,18 +9108,18 @@
         <v>64</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75">
       <c r="A18" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>64</v>
@@ -9122,18 +9133,18 @@
         <v>64</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75">
       <c r="A19" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>64</v>
@@ -9149,13 +9160,13 @@
     </row>
     <row r="20" spans="1:11" ht="12.75">
       <c r="A20" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>64</v>
@@ -9171,13 +9182,13 @@
     </row>
     <row r="21" spans="1:11" ht="12.75">
       <c r="A21" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>64</v>
@@ -9193,13 +9204,13 @@
     </row>
     <row r="22" spans="1:11" ht="12.75">
       <c r="A22" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>64</v>
@@ -9215,13 +9226,13 @@
     </row>
     <row r="23" spans="1:11" ht="12.75">
       <c r="A23" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>64</v>
@@ -9237,10 +9248,10 @@
     </row>
     <row r="24" spans="1:11" ht="12.75">
       <c r="B24" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>64</v>
@@ -9256,10 +9267,10 @@
     </row>
     <row r="25" spans="1:11" ht="12.75">
       <c r="B25" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>64</v>
@@ -9275,10 +9286,10 @@
     </row>
     <row r="26" spans="1:11" ht="12.75">
       <c r="B26" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>64</v>
@@ -9292,15 +9303,15 @@
         <v>64</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75">
       <c r="B27" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>64</v>
@@ -9316,10 +9327,10 @@
     </row>
     <row r="28" spans="1:11" ht="12.75">
       <c r="B28" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>64</v>
@@ -9335,10 +9346,10 @@
     </row>
     <row r="29" spans="1:11" ht="12.75">
       <c r="B29" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>64</v>
@@ -9354,10 +9365,10 @@
     </row>
     <row r="30" spans="1:11" ht="12.75">
       <c r="B30" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>64</v>
@@ -9373,10 +9384,10 @@
     </row>
     <row r="31" spans="1:11" ht="12.75">
       <c r="B31" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>64</v>
@@ -9392,10 +9403,10 @@
     </row>
     <row r="32" spans="1:11" ht="12.75">
       <c r="B32" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>64</v>
@@ -9411,10 +9422,10 @@
     </row>
     <row r="33" spans="1:19" ht="12.75">
       <c r="B33" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>64</v>
@@ -9428,15 +9439,15 @@
         <v>64</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="12.75">
       <c r="B34" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>64</v>
@@ -9452,10 +9463,10 @@
     </row>
     <row r="35" spans="1:19" ht="12.75">
       <c r="B35" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>64</v>
@@ -9471,10 +9482,10 @@
     </row>
     <row r="36" spans="1:19" ht="12.75">
       <c r="B36" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>64</v>
@@ -9491,10 +9502,10 @@
     <row r="37" spans="1:19" ht="12.75">
       <c r="A37" s="16"/>
       <c r="B37" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>64</v>
@@ -9521,64 +9532,64 @@
     </row>
     <row r="38" spans="1:19" ht="12.75">
       <c r="A38" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="12.75">
       <c r="A39" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="12.75">
       <c r="A40" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="12.75">
       <c r="A41" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="12.75">
       <c r="A42" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -9586,27 +9597,27 @@
     </row>
     <row r="43" spans="1:19" ht="12.75">
       <c r="A43" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="12.75">
       <c r="A44" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="12.75">
       <c r="A45" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>53</v>
@@ -9614,61 +9625,61 @@
     </row>
     <row r="46" spans="1:19" ht="12.75">
       <c r="A46" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="12.75">
       <c r="A47" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="12.75">
       <c r="A48" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="12.75">
       <c r="A49" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="12.75">
       <c r="A50" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="12.75">
       <c r="A51" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O51" s="20" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="12.75">
       <c r="A52" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O52" s="20">
         <v>8</v>
@@ -9676,226 +9687,226 @@
     </row>
     <row r="53" spans="1:15" ht="12.75">
       <c r="A53" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="O53" s="20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="12.75">
       <c r="A54" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="12.75">
       <c r="A55" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="12.75">
       <c r="A56" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="12.75">
       <c r="A57" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="O57" s="20" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="12.75">
       <c r="A58" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="O58" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="12.75">
       <c r="A59" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="12.75">
       <c r="A60" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="12.75">
       <c r="A61" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="12.75">
       <c r="A62" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="12.75">
       <c r="A63" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="12.75">
       <c r="A64" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="12.75">
       <c r="A65" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B65" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="C65" s="20" t="s">
         <v>413</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12.75">
       <c r="A66" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12.75">
       <c r="A67" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="12.75">
       <c r="A68" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="12.75">
       <c r="A69" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="12.75">
       <c r="A70" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="12.75">
       <c r="A71" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C71" s="20" t="s">
         <v>425</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="12.75">
       <c r="A72" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="12.75">
       <c r="A73" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12.75">
       <c r="A74" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -9946,25 +9957,25 @@
         <v>3</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F1" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="J1" s="40" t="s">
         <v>314</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>317</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -9993,10 +10004,10 @@
     </row>
     <row r="2" spans="1:20" ht="12.75">
       <c r="B2" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>64</v>
@@ -10013,10 +10024,10 @@
     </row>
     <row r="3" spans="1:20" ht="12.75">
       <c r="B3" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>64</v>
@@ -10033,10 +10044,10 @@
     </row>
     <row r="4" spans="1:20" ht="12.75">
       <c r="B4" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>64</v>
@@ -10051,12 +10062,12 @@
         <v>64</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="12.75">
       <c r="A5" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>53</v>
@@ -10079,13 +10090,13 @@
     </row>
     <row r="6" spans="1:20" ht="12.75">
       <c r="A6" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>64</v>
@@ -10102,13 +10113,13 @@
     </row>
     <row r="7" spans="1:20" ht="12.75">
       <c r="A7" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>64</v>
@@ -10123,18 +10134,18 @@
         <v>64</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="12.75">
       <c r="A8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>64</v>
@@ -10151,7 +10162,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -10159,13 +10170,13 @@
     </row>
     <row r="9" spans="1:20" ht="12.75">
       <c r="A9" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>64</v>
@@ -10182,13 +10193,13 @@
     </row>
     <row r="10" spans="1:20" ht="12.75">
       <c r="A10" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>64</v>
@@ -10205,13 +10216,13 @@
     </row>
     <row r="11" spans="1:20" ht="12.75">
       <c r="A11" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>64</v>
@@ -10228,13 +10239,13 @@
     </row>
     <row r="12" spans="1:20" ht="12.75">
       <c r="A12" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>64</v>
@@ -10251,13 +10262,13 @@
     </row>
     <row r="13" spans="1:20" ht="12.75">
       <c r="A13" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>64</v>
@@ -10274,13 +10285,13 @@
     </row>
     <row r="14" spans="1:20" ht="12.75">
       <c r="A14" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>64</v>
@@ -10297,13 +10308,13 @@
     </row>
     <row r="15" spans="1:20" ht="12.75">
       <c r="A15" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>64</v>
@@ -10320,13 +10331,13 @@
     </row>
     <row r="16" spans="1:20" ht="12.75">
       <c r="A16" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>64</v>
@@ -10341,18 +10352,18 @@
         <v>64</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="12.75">
       <c r="A17" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>64</v>
@@ -10367,18 +10378,18 @@
         <v>64</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="12.75">
       <c r="A18" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>64</v>
@@ -10393,18 +10404,18 @@
         <v>64</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12.75">
       <c r="A19" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>64</v>
@@ -10421,13 +10432,13 @@
     </row>
     <row r="20" spans="1:12" ht="12.75">
       <c r="A20" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>64</v>
@@ -10444,13 +10455,13 @@
     </row>
     <row r="21" spans="1:12" ht="12.75">
       <c r="A21" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>64</v>
@@ -10467,13 +10478,13 @@
     </row>
     <row r="22" spans="1:12" ht="12.75">
       <c r="A22" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>64</v>
@@ -10490,13 +10501,13 @@
     </row>
     <row r="23" spans="1:12" ht="12.75">
       <c r="A23" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>64</v>
@@ -10513,10 +10524,10 @@
     </row>
     <row r="24" spans="1:12" ht="12.75">
       <c r="B24" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>64</v>
@@ -10533,10 +10544,10 @@
     </row>
     <row r="25" spans="1:12" ht="12.75">
       <c r="B25" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>64</v>
@@ -10553,10 +10564,10 @@
     </row>
     <row r="26" spans="1:12" ht="12.75">
       <c r="B26" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>64</v>
@@ -10571,15 +10582,15 @@
         <v>64</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="12.75">
       <c r="B27" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>64</v>
@@ -10596,10 +10607,10 @@
     </row>
     <row r="28" spans="1:12" ht="12.75">
       <c r="B28" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>64</v>
@@ -10616,10 +10627,10 @@
     </row>
     <row r="29" spans="1:12" ht="12.75">
       <c r="B29" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>64</v>
@@ -10636,10 +10647,10 @@
     </row>
     <row r="30" spans="1:12" ht="12.75">
       <c r="B30" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>64</v>
@@ -10656,10 +10667,10 @@
     </row>
     <row r="31" spans="1:12" ht="12.75">
       <c r="B31" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>64</v>
@@ -10676,10 +10687,10 @@
     </row>
     <row r="32" spans="1:12" ht="12.75">
       <c r="B32" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>64</v>
@@ -10696,10 +10707,10 @@
     </row>
     <row r="33" spans="1:20" ht="12.75">
       <c r="B33" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>64</v>
@@ -10714,15 +10725,15 @@
         <v>64</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="12.75">
       <c r="B34" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>64</v>
@@ -10739,10 +10750,10 @@
     </row>
     <row r="35" spans="1:20" ht="12.75">
       <c r="B35" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>64</v>
@@ -10759,10 +10770,10 @@
     </row>
     <row r="36" spans="1:20" ht="12.75">
       <c r="B36" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>64</v>
@@ -10780,10 +10791,10 @@
     <row r="37" spans="1:20" ht="12.75">
       <c r="A37" s="16"/>
       <c r="B37" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>64</v>
@@ -10811,64 +10822,64 @@
     </row>
     <row r="38" spans="1:20" ht="12.75">
       <c r="A38" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="12.75">
       <c r="A39" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="12.75">
       <c r="A40" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="12.75">
       <c r="A41" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="12.75">
       <c r="A42" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -10876,27 +10887,27 @@
     </row>
     <row r="43" spans="1:20" ht="12.75">
       <c r="A43" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="12.75">
       <c r="A44" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="12.75">
       <c r="A45" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>53</v>
@@ -10904,61 +10915,61 @@
     </row>
     <row r="46" spans="1:20" ht="12.75">
       <c r="A46" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="12.75">
       <c r="A47" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="12.75">
       <c r="A48" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="12.75">
       <c r="A49" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="12.75">
       <c r="A50" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="12.75">
       <c r="A51" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P51" s="20" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="12.75">
       <c r="A52" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="P52" s="20">
         <v>8</v>
@@ -10966,226 +10977,226 @@
     </row>
     <row r="53" spans="1:16" ht="12.75">
       <c r="A53" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="P53" s="20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="12.75">
       <c r="A54" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P54" s="20" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="12.75">
       <c r="A55" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P55" s="20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="12.75">
       <c r="A56" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="P56" s="20" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="12.75">
       <c r="A57" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P57" s="20" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="12.75">
       <c r="A58" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P58" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="12.75">
       <c r="A59" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="12.75">
       <c r="A60" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="12.75">
       <c r="A61" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="12.75">
       <c r="A62" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="12.75">
       <c r="A63" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="12.75">
       <c r="A64" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="12.75">
       <c r="A65" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B65" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="C65" s="20" t="s">
         <v>413</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12.75">
       <c r="A66" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12.75">
       <c r="A67" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="12.75">
       <c r="A68" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="12.75">
       <c r="A69" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="12.75">
       <c r="A70" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="12.75">
       <c r="A71" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C71" s="20" t="s">
         <v>425</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="12.75">
       <c r="A72" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="12.75">
       <c r="A73" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12.75">
       <c r="A74" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -11223,7 +11234,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
@@ -11234,7 +11245,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
@@ -11245,7 +11256,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
@@ -11267,7 +11278,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
@@ -11278,7 +11289,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
@@ -11300,7 +11311,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
@@ -11311,7 +11322,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
@@ -11322,7 +11333,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
@@ -11388,7 +11399,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -11400,7 +11411,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -11412,7 +11423,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -11424,7 +11435,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
@@ -11435,7 +11446,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
@@ -11446,7 +11457,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
@@ -11457,7 +11468,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
@@ -11468,7 +11479,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
@@ -11479,7 +11490,7 @@
         <v>54</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
@@ -11490,7 +11501,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
@@ -11501,7 +11512,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
@@ -11512,7 +11523,7 @@
         <v>54</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
@@ -11523,7 +11534,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75">
@@ -11534,7 +11545,7 @@
         <v>54</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75">
@@ -11545,7 +11556,7 @@
         <v>54</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75">
@@ -11556,7 +11567,7 @@
         <v>54</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75">
@@ -11567,7 +11578,7 @@
         <v>54</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75">
@@ -11578,7 +11589,7 @@
         <v>54</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75">
@@ -11589,7 +11600,7 @@
         <v>54</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.75">
@@ -11600,7 +11611,7 @@
         <v>54</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75">
@@ -11611,7 +11622,7 @@
         <v>54</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.75">
@@ -11622,7 +11633,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.75">
@@ -11633,7 +11644,7 @@
         <v>23</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12.75">
@@ -11644,29 +11655,29 @@
         <v>23</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12.75">
       <c r="A40" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12.75">
       <c r="A41" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12.75">
@@ -11677,7 +11688,7 @@
         <v>23</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12.75">
@@ -11688,7 +11699,7 @@
         <v>23</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12.75">
@@ -11699,7 +11710,7 @@
         <v>23</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="12.75">
@@ -11710,7 +11721,7 @@
         <v>23</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12.75">
@@ -11721,7 +11732,7 @@
         <v>23</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="12.75">
@@ -11732,84 +11743,84 @@
         <v>23</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="12.75">
       <c r="A48" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="12.75">
       <c r="A49" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="12.75">
       <c r="A50" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="12.75">
       <c r="A51" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="12.75">
       <c r="A52" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="12.75">
       <c r="A53" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="12.75">
       <c r="A54" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="54" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="12.75">
@@ -11820,7 +11831,7 @@
         <v>23</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="12.75">
@@ -11831,7 +11842,7 @@
         <v>23</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="12.75">
@@ -11864,7 +11875,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="12.75">
@@ -11875,7 +11886,7 @@
         <v>54</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="12.75">
@@ -11886,7 +11897,7 @@
         <v>54</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="12.75">
@@ -11897,7 +11908,7 @@
         <v>54</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="12.75">
@@ -11908,7 +11919,7 @@
         <v>54</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="12.75">
@@ -11919,7 +11930,7 @@
         <v>54</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="12.75">
@@ -11930,7 +11941,7 @@
         <v>54</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12.75">
@@ -11941,7 +11952,7 @@
         <v>23</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12.75">
@@ -11952,7 +11963,7 @@
         <v>23</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="12.75">
@@ -11963,7 +11974,7 @@
         <v>23</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="12.75">
@@ -12016,254 +12027,254 @@
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="B1" s="1"/>
       <c r="C1" s="45" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E1" s="48" t="s">
         <v>51</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="49" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G2" s="51"/>
       <c r="H2" s="52" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="53"/>
       <c r="B3" s="10" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="55" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="53"/>
       <c r="B4" s="10" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="55" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="56"/>
       <c r="B5" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="56"/>
       <c r="B6" s="10" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="57" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="55" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="59"/>
       <c r="B8" s="58" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="55" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="59"/>
       <c r="B9" s="58" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="55" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="60" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="55" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="61" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="55" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
@@ -12279,71 +12290,71 @@
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="62"/>
       <c r="B13" s="23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="55" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="62"/>
       <c r="B14" s="23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="55" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="62"/>
       <c r="B15" s="23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="55" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="63"/>
       <c r="B16" s="64" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
@@ -12354,44 +12365,44 @@
     </row>
     <row r="17" spans="2:8" ht="15.75" customHeight="1">
       <c r="B17" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" customHeight="1">
       <c r="C19" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" customHeight="1">
       <c r="C20" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="G20" s="66" t="s">
         <v>515</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G20" s="66" t="s">
-        <v>518</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>519</v>
       </c>
     </row>
   </sheetData>
